--- a/results/data/CG_mastersankey.xlsx
+++ b/results/data/CG_mastersankey.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="35">
   <si>
     <t>CG_sankey</t>
   </si>
@@ -476,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E180"/>
+  <dimension ref="A1:E176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -527,7 +527,7 @@
         <v>16</v>
       </c>
       <c r="E3">
-        <v>75084.63099999999</v>
+        <v>71921.75600000002</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -561,7 +561,7 @@
         <v>18</v>
       </c>
       <c r="E5">
-        <v>7852.709</v>
+        <v>6907.149</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -578,7 +578,7 @@
         <v>19</v>
       </c>
       <c r="E6">
-        <v>69707.965</v>
+        <v>68917.50600000001</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -612,7 +612,7 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>12871.88</v>
+        <v>10911.76</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -629,7 +629,7 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>37728.64000000001</v>
+        <v>29468.32</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -714,7 +714,7 @@
         <v>16</v>
       </c>
       <c r="E14">
-        <v>114990.691</v>
+        <v>113866.35</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -765,7 +765,7 @@
         <v>18</v>
       </c>
       <c r="E17">
-        <v>45058.01699999999</v>
+        <v>43311.197</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -782,7 +782,7 @@
         <v>19</v>
       </c>
       <c r="E18">
-        <v>19999.11</v>
+        <v>19791.81</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -850,7 +850,7 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>54219.27099999999</v>
+        <v>53680.01099999998</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -898,10 +898,10 @@
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E25">
-        <v>0.06</v>
+        <v>95.88</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -912,13 +912,13 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E26">
-        <v>95.88</v>
+        <v>30994.41799999999</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -932,10 +932,10 @@
         <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E27">
-        <v>30994.41799999999</v>
+        <v>3071.646</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -949,10 +949,10 @@
         <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E28">
-        <v>79.03999999999999</v>
+        <v>33.51</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -966,10 +966,10 @@
         <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E29">
-        <v>3071.646</v>
+        <v>244.39</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -983,10 +983,10 @@
         <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E30">
-        <v>33.51</v>
+        <v>510.34</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1000,10 +1000,10 @@
         <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E31">
-        <v>244.39</v>
+        <v>15764.848</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1014,13 +1014,13 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E32">
-        <v>510.34</v>
+        <v>43.10300000000001</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1031,13 +1031,13 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E33">
-        <v>15764.848</v>
+        <v>39099.79399999998</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1051,10 +1051,10 @@
         <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E34">
-        <v>43.10300000000001</v>
+        <v>74420.96000000001</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1068,10 +1068,10 @@
         <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E35">
-        <v>39158.82699999998</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1085,10 +1085,10 @@
         <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E36">
-        <v>74420.96000000001</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1102,10 +1102,10 @@
         <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E37">
-        <v>10.5</v>
+        <v>40437.63199999998</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1119,10 +1119,10 @@
         <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E38">
-        <v>11.2</v>
+        <v>111351.145</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1136,10 +1136,10 @@
         <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E39">
-        <v>40781.57199999998</v>
+        <v>39.91</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1153,10 +1153,10 @@
         <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E40">
-        <v>111474.146</v>
+        <v>9613.050000000001</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1170,10 +1170,10 @@
         <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E41">
-        <v>39.91</v>
+        <v>6175.94</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1187,10 +1187,10 @@
         <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E42">
-        <v>9613.050000000001</v>
+        <v>33925.64</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E43">
-        <v>6175.94</v>
+        <v>1498.94</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1215,16 +1215,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E44">
-        <v>39482.68</v>
+        <v>72959.36200000001</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1232,16 +1232,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E45">
-        <v>1498.94</v>
+        <v>270593.02</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E46">
-        <v>72959.36200000001</v>
+        <v>14300.875</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1272,10 +1272,10 @@
         <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E47">
-        <v>270593.02</v>
+        <v>27386.407</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1289,10 +1289,10 @@
         <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E48">
-        <v>14300.875</v>
+        <v>23818.169</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1306,10 +1306,10 @@
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E49">
-        <v>27385.024</v>
+        <v>632.4400000000001</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1323,10 +1323,10 @@
         <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E50">
-        <v>23818.169</v>
+        <v>253.24</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1337,13 +1337,13 @@
         <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E51">
-        <v>632.4400000000001</v>
+        <v>39.56</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1357,10 +1357,10 @@
         <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E52">
-        <v>39.56</v>
+        <v>154.019</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1374,10 +1374,10 @@
         <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E53">
-        <v>154.019</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1388,13 +1388,13 @@
         <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E54">
-        <v>0.9399999999999999</v>
+        <v>18.151</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1408,10 +1408,10 @@
         <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E55">
-        <v>18.151</v>
+        <v>132875.983</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1425,10 +1425,10 @@
         <v>11</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E56">
-        <v>132875.983</v>
+        <v>18394.271</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1442,10 +1442,10 @@
         <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E57">
-        <v>18394.271</v>
+        <v>111819.175</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1459,10 +1459,10 @@
         <v>11</v>
       </c>
       <c r="D58" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E58">
-        <v>111819.175</v>
+        <v>3708.913</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1476,10 +1476,10 @@
         <v>11</v>
       </c>
       <c r="D59" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E59">
-        <v>3708.913</v>
+        <v>87.88000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1493,10 +1493,10 @@
         <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E60">
-        <v>87.88000000000001</v>
+        <v>35173.46999999999</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1510,10 +1510,10 @@
         <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E61">
-        <v>35173.46999999999</v>
+        <v>71425.569</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1527,10 +1527,10 @@
         <v>11</v>
       </c>
       <c r="D62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E62">
-        <v>75804.66900000001</v>
+        <v>8717.1</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1541,13 +1541,13 @@
         <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E63">
-        <v>8717.1</v>
+        <v>101.9</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1558,13 +1558,13 @@
         <v>5</v>
       </c>
       <c r="C64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E64">
-        <v>101.9</v>
+        <v>126.84</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1578,10 +1578,10 @@
         <v>13</v>
       </c>
       <c r="D65" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E65">
-        <v>126.84</v>
+        <v>26972.06299999999</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1595,10 +1595,10 @@
         <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E66">
-        <v>26972.06299999999</v>
+        <v>213.38</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1612,10 +1612,10 @@
         <v>13</v>
       </c>
       <c r="D67" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E67">
-        <v>213.38</v>
+        <v>2681.34</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1629,10 +1629,10 @@
         <v>13</v>
       </c>
       <c r="D68" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E68">
-        <v>2681.34</v>
+        <v>10747.12</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1646,10 +1646,10 @@
         <v>13</v>
       </c>
       <c r="D69" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E69">
-        <v>10747.12</v>
+        <v>309.86</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1663,10 +1663,10 @@
         <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E70">
-        <v>309.86</v>
+        <v>137.44</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1677,13 +1677,13 @@
         <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E71">
-        <v>137.44</v>
+        <v>30507.79300000001</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1697,10 +1697,10 @@
         <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E72">
-        <v>30507.79300000001</v>
+        <v>32095.66</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1714,10 +1714,10 @@
         <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E73">
-        <v>32095.66</v>
+        <v>38413.03000000001</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1731,10 +1731,10 @@
         <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E74">
-        <v>38413.03000000001</v>
+        <v>15270.035</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1748,10 +1748,10 @@
         <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E75">
-        <v>15271.418</v>
+        <v>11889.58</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1765,10 +1765,10 @@
         <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E76">
-        <v>11889.58</v>
+        <v>4080.66</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1782,10 +1782,10 @@
         <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E77">
-        <v>4080.66</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1793,16 +1793,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E78">
-        <v>5.4</v>
+        <v>29.835</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1810,16 +1810,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E79">
-        <v>253.24</v>
+        <v>30039.17899999999</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1833,10 +1833,10 @@
         <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E80">
-        <v>29.835</v>
+        <v>22980.7</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1850,10 +1850,10 @@
         <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E81">
-        <v>30112.13899999998</v>
+        <v>2573.609</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1867,10 +1867,10 @@
         <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E82">
-        <v>22980.7</v>
+        <v>41585.47000000002</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1884,10 +1884,10 @@
         <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E83">
-        <v>2573.609</v>
+        <v>15245.52</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1901,10 +1901,10 @@
         <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E84">
-        <v>41588.10000000001</v>
+        <v>460.002</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1918,10 +1918,10 @@
         <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E85">
-        <v>15245.52</v>
+        <v>15.74</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1935,10 +1935,10 @@
         <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E86">
-        <v>460.002</v>
+        <v>6633.04</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1949,13 +1949,13 @@
         <v>6</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E87">
-        <v>15.74</v>
+        <v>89.092</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1966,13 +1966,13 @@
         <v>6</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E88">
-        <v>31760.88</v>
+        <v>251.26</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1986,10 +1986,10 @@
         <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E89">
-        <v>89.092</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2000,13 +2000,13 @@
         <v>6</v>
       </c>
       <c r="C90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D90" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E90">
-        <v>251.26</v>
+        <v>3.696</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2017,13 +2017,13 @@
         <v>6</v>
       </c>
       <c r="C91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D91" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E91">
-        <v>3321</v>
+        <v>11504.95</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2037,10 +2037,10 @@
         <v>11</v>
       </c>
       <c r="D92" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E92">
-        <v>3.696</v>
+        <v>39.459</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2054,10 +2054,10 @@
         <v>11</v>
       </c>
       <c r="D93" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E93">
-        <v>11531.719</v>
+        <v>12510.968</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2071,10 +2071,10 @@
         <v>11</v>
       </c>
       <c r="D94" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E94">
-        <v>39.459</v>
+        <v>18982.809</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2088,10 +2088,10 @@
         <v>11</v>
       </c>
       <c r="D95" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E95">
-        <v>12612.839</v>
+        <v>14054.23</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2105,10 +2105,10 @@
         <v>11</v>
       </c>
       <c r="D96" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E96">
-        <v>18985.229</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2122,10 +2122,10 @@
         <v>11</v>
       </c>
       <c r="D97" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E97">
-        <v>14054.23</v>
+        <v>8535.025999999998</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2136,13 +2136,13 @@
         <v>6</v>
       </c>
       <c r="C98" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D98" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E98">
-        <v>1.04</v>
+        <v>60.69</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2153,13 +2153,13 @@
         <v>6</v>
       </c>
       <c r="C99" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D99" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E99">
-        <v>8594.945999999998</v>
+        <v>4003.23</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2170,13 +2170,13 @@
         <v>6</v>
       </c>
       <c r="C100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D100" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E100">
-        <v>0.328</v>
+        <v>379.1</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2190,10 +2190,10 @@
         <v>13</v>
       </c>
       <c r="D101" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E101">
-        <v>60.69</v>
+        <v>1585.574</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2207,10 +2207,10 @@
         <v>13</v>
       </c>
       <c r="D102" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E102">
-        <v>4003.23</v>
+        <v>58.04</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2224,10 +2224,10 @@
         <v>13</v>
       </c>
       <c r="D103" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E103">
-        <v>0.44</v>
+        <v>29.14</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2241,10 +2241,10 @@
         <v>13</v>
       </c>
       <c r="D104" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E104">
-        <v>379.1</v>
+        <v>94.98</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2258,10 +2258,10 @@
         <v>13</v>
       </c>
       <c r="D105" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E105">
-        <v>1585.574</v>
+        <v>10432.984</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2272,13 +2272,13 @@
         <v>6</v>
       </c>
       <c r="C106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E106">
-        <v>58.04</v>
+        <v>63029.74000000001</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2289,13 +2289,13 @@
         <v>6</v>
       </c>
       <c r="C107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D107" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E107">
-        <v>29.14</v>
+        <v>46348.92999999999</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2306,13 +2306,13 @@
         <v>6</v>
       </c>
       <c r="C108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D108" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E108">
-        <v>4763.82</v>
+        <v>3224.559999999999</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2323,13 +2323,13 @@
         <v>6</v>
       </c>
       <c r="C109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D109" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E109">
-        <v>10432.984</v>
+        <v>160115.651</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2343,10 +2343,10 @@
         <v>14</v>
       </c>
       <c r="D110" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E110">
-        <v>64097.79100000002</v>
+        <v>14355.38</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2360,10 +2360,10 @@
         <v>14</v>
       </c>
       <c r="D111" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E111">
-        <v>46348.92999999999</v>
+        <v>225.54</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2371,16 +2371,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E112">
-        <v>3341.96</v>
+        <v>12.851</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2388,16 +2388,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E113">
-        <v>163123.201</v>
+        <v>37131.73899999995</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2405,16 +2405,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E114">
-        <v>14358.66</v>
+        <v>11397.18</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2422,16 +2422,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E115">
-        <v>225.54</v>
+        <v>1757.915</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2445,10 +2445,10 @@
         <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E116">
-        <v>12.851</v>
+        <v>9579.632000000007</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2462,10 +2462,10 @@
         <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E117">
-        <v>37238.13499999996</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2479,10 +2479,10 @@
         <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E118">
-        <v>11397.18</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2496,10 +2496,10 @@
         <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E119">
-        <v>1763.835</v>
+        <v>296.91</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2513,10 +2513,10 @@
         <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E120">
-        <v>9682.902000000007</v>
+        <v>2924.32</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2530,10 +2530,10 @@
         <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E121">
-        <v>1.68</v>
+        <v>10985.52</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2547,10 +2547,10 @@
         <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E122">
-        <v>5.46</v>
+        <v>14.84</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2561,13 +2561,13 @@
         <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E123">
-        <v>296.91</v>
+        <v>553.5050000000001</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2578,13 +2578,13 @@
         <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E124">
-        <v>2924.32</v>
+        <v>451.124</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2595,13 +2595,13 @@
         <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D125" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E125">
-        <v>10985.52</v>
+        <v>502.983</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2612,13 +2612,13 @@
         <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D126" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E126">
-        <v>14.84</v>
+        <v>15479.83000000001</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2629,13 +2629,13 @@
         <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D127" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E127">
-        <v>563.163</v>
+        <v>4452.697999999999</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2646,13 +2646,13 @@
         <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D128" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E128">
-        <v>475.124</v>
+        <v>34.78</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2666,10 +2666,10 @@
         <v>11</v>
       </c>
       <c r="D129" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E129">
-        <v>502.983</v>
+        <v>39376.783</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2683,10 +2683,10 @@
         <v>11</v>
       </c>
       <c r="D130" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E130">
-        <v>15736.19600000001</v>
+        <v>1084.54</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2700,10 +2700,10 @@
         <v>11</v>
       </c>
       <c r="D131" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E131">
-        <v>4454.277999999999</v>
+        <v>13.495</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2717,10 +2717,10 @@
         <v>11</v>
       </c>
       <c r="D132" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E132">
-        <v>34.78</v>
+        <v>5.885000000000001</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2734,10 +2734,10 @@
         <v>11</v>
       </c>
       <c r="D133" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E133">
-        <v>39627.452</v>
+        <v>20560.212</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2751,10 +2751,10 @@
         <v>11</v>
       </c>
       <c r="D134" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E134">
-        <v>1084.54</v>
+        <v>77.14</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2768,10 +2768,10 @@
         <v>11</v>
       </c>
       <c r="D135" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E135">
-        <v>13.495</v>
+        <v>8385.310000000003</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2785,10 +2785,10 @@
         <v>11</v>
       </c>
       <c r="D136" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E136">
-        <v>5.885000000000001</v>
+        <v>30</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2802,10 +2802,10 @@
         <v>11</v>
       </c>
       <c r="D137" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E137">
-        <v>20560.212</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2819,10 +2819,10 @@
         <v>11</v>
       </c>
       <c r="D138" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E138">
-        <v>77.14</v>
+        <v>0.045</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2833,13 +2833,13 @@
         <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D139" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E139">
-        <v>8393.930000000002</v>
+        <v>9.705</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2850,13 +2850,13 @@
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D140" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E140">
-        <v>30</v>
+        <v>12.08</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2867,13 +2867,13 @@
         <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D141" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E141">
-        <v>3.32</v>
+        <v>117.408</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2884,13 +2884,13 @@
         <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D142" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E142">
-        <v>0.045</v>
+        <v>6559.625999999997</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2901,13 +2901,13 @@
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D143" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E143">
-        <v>9.705</v>
+        <v>39.48</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2918,13 +2918,13 @@
         <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D144" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E144">
-        <v>12.08</v>
+        <v>1437.471</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2938,10 +2938,10 @@
         <v>13</v>
       </c>
       <c r="D145" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E145">
-        <v>117.408</v>
+        <v>3903.36</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2955,10 +2955,10 @@
         <v>13</v>
       </c>
       <c r="D146" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E146">
-        <v>6576.545999999996</v>
+        <v>123.718</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2972,10 +2972,10 @@
         <v>13</v>
       </c>
       <c r="D147" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E147">
-        <v>39.48</v>
+        <v>87.7</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2989,10 +2989,10 @@
         <v>13</v>
       </c>
       <c r="D148" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E148">
-        <v>1516.271</v>
+        <v>1862.05</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3006,10 +3006,10 @@
         <v>13</v>
       </c>
       <c r="D149" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E149">
-        <v>3903.36</v>
+        <v>1053.46</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3023,10 +3023,10 @@
         <v>13</v>
       </c>
       <c r="D150" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E150">
-        <v>123.718</v>
+        <v>15567.872</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3040,10 +3040,10 @@
         <v>13</v>
       </c>
       <c r="D151" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E151">
-        <v>87.7</v>
+        <v>115.58</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3054,13 +3054,13 @@
         <v>7</v>
       </c>
       <c r="C152" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D152" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E152">
-        <v>1862.05</v>
+        <v>20835.78800000001</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3071,13 +3071,13 @@
         <v>7</v>
       </c>
       <c r="C153" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D153" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E153">
-        <v>1053.46</v>
+        <v>12.54</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3088,13 +3088,13 @@
         <v>7</v>
       </c>
       <c r="C154" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D154" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E154">
-        <v>15572.472</v>
+        <v>10999.526</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3105,13 +3105,13 @@
         <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D155" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E155">
-        <v>115.58</v>
+        <v>11860.277</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3125,10 +3125,10 @@
         <v>14</v>
       </c>
       <c r="D156" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E156">
-        <v>21151.39100000001</v>
+        <v>5846.010000000002</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3142,10 +3142,10 @@
         <v>14</v>
       </c>
       <c r="D157" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E157">
-        <v>12.54</v>
+        <v>380.1999999999999</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3153,16 +3153,16 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E158">
-        <v>11067.626</v>
+        <v>107864.764</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3170,16 +3170,16 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E159">
-        <v>11936.472</v>
+        <v>19288.85</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3187,16 +3187,16 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E160">
-        <v>5904.130000000002</v>
+        <v>5975.613</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3204,16 +3204,16 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E161">
-        <v>380.1999999999999</v>
+        <v>1333.06</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3227,10 +3227,10 @@
         <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E162">
-        <v>107864.764</v>
+        <v>46864.06</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3241,13 +3241,13 @@
         <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D163" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E163">
-        <v>19288.85</v>
+        <v>26637.99799999999</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3258,13 +3258,13 @@
         <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D164" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E164">
-        <v>5975.613</v>
+        <v>28.419</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3275,13 +3275,13 @@
         <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D165" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E165">
-        <v>1333.06</v>
+        <v>126.1</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3292,13 +3292,13 @@
         <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D166" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E166">
-        <v>46864.06</v>
+        <v>13818.028</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3312,10 +3312,10 @@
         <v>11</v>
       </c>
       <c r="D167" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E167">
-        <v>26637.99799999999</v>
+        <v>22189.62</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3329,10 +3329,10 @@
         <v>11</v>
       </c>
       <c r="D168" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E168">
-        <v>28.419</v>
+        <v>13231.62</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3343,13 +3343,13 @@
         <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D169" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E169">
-        <v>126.1</v>
+        <v>476.17</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3360,13 +3360,13 @@
         <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D170" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E170">
-        <v>13818.028</v>
+        <v>5565.118</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3377,13 +3377,13 @@
         <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D171" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E171">
-        <v>22189.62</v>
+        <v>47.44</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3394,13 +3394,13 @@
         <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D172" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E172">
-        <v>13231.62</v>
+        <v>50092.454</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3411,13 +3411,13 @@
         <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D173" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E173">
-        <v>476.17</v>
+        <v>33404.35999999999</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3428,13 +3428,13 @@
         <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D174" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E174">
-        <v>5565.118</v>
+        <v>3747.36</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3445,13 +3445,13 @@
         <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D175" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E175">
-        <v>47.44</v>
+        <v>41524.70100000001</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3465,77 +3465,9 @@
         <v>14</v>
       </c>
       <c r="D176" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E176">
-        <v>50092.454</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
-      <c r="A177" s="1">
-        <v>175</v>
-      </c>
-      <c r="B177" t="s">
-        <v>8</v>
-      </c>
-      <c r="C177" t="s">
-        <v>14</v>
-      </c>
-      <c r="D177" t="s">
-        <v>17</v>
-      </c>
-      <c r="E177">
-        <v>33404.35999999999</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
-      <c r="A178" s="1">
-        <v>176</v>
-      </c>
-      <c r="B178" t="s">
-        <v>8</v>
-      </c>
-      <c r="C178" t="s">
-        <v>14</v>
-      </c>
-      <c r="D178" t="s">
-        <v>18</v>
-      </c>
-      <c r="E178">
-        <v>3747.36</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
-      <c r="A179" s="1">
-        <v>177</v>
-      </c>
-      <c r="B179" t="s">
-        <v>8</v>
-      </c>
-      <c r="C179" t="s">
-        <v>14</v>
-      </c>
-      <c r="D179" t="s">
-        <v>19</v>
-      </c>
-      <c r="E179">
-        <v>41524.70100000001</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
-      <c r="A180" s="1">
-        <v>178</v>
-      </c>
-      <c r="B180" t="s">
-        <v>8</v>
-      </c>
-      <c r="C180" t="s">
-        <v>14</v>
-      </c>
-      <c r="D180" t="s">
-        <v>27</v>
-      </c>
-      <c r="E180">
         <v>18.14</v>
       </c>
     </row>
